--- a/biology/Botanique/Vignoble_du_Libournais/Vignoble_du_Libournais.xlsx
+++ b/biology/Botanique/Vignoble_du_Libournais/Vignoble_du_Libournais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le vignoble du Libournais est une région du vignoble de Bordeaux. Ce vaste vignoble est délimité au sud par la Dordogne, à l'est et au nord par les limites du département de la Gironde, à l'ouest par l'Isle.
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le port de Libourne, sans concurrencer celui de Bordeaux, a été un lieu de chargement des vins dès la fondation de la ville de Libourne en 1270[1] : une bastide y est créée par Édouard Ier d'Angleterre afin de protéger le chargement des navires de haute mer avec les barriques venues là par gabarre, descendant la Dordogne et l'Isle.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le port de Libourne, sans concurrencer celui de Bordeaux, a été un lieu de chargement des vins dès la fondation de la ville de Libourne en 1270 : une bastide y est créée par Édouard Ier d'Angleterre afin de protéger le chargement des navires de haute mer avec les barriques venues là par gabarre, descendant la Dordogne et l'Isle.
 </t>
         </is>
       </c>
@@ -541,42 +555,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Géographie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Situation
-Géologie et orographie
-Climatologie</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Vignoble_du_Libournais</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vignoble_du_Libournais</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>Appellations et dénominations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>bordeaux-supérieur ;
 bordeaux ;
@@ -590,11 +574,44 @@
 saint-georges-saint-émilion ;
 lussac-saint-émilion ;
 puisseguin-saint-émilion ;
-côtes-de-bordeaux (dénominations francs-côtes-de-bordeaux et castillon-côtes-de-bordeaux).
-Encépagement
-Les principaux cépages utilisés sont le merlot (souvent majoritaire dans les assemblages du Libournais), le cabernet franc et de façon plus marginal le malbec et le cabernet sauvignon.
-Pratiques culturales
-Vins</t>
+côtes-de-bordeaux (dénominations francs-côtes-de-bordeaux et castillon-côtes-de-bordeaux).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vignoble_du_Libournais</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vignoble_du_Libournais</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Appellations et dénominations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principaux cépages utilisés sont le merlot (souvent majoritaire dans les assemblages du Libournais), le cabernet franc et de façon plus marginal le malbec et le cabernet sauvignon.
+</t>
         </is>
       </c>
     </row>
@@ -622,7 +639,9 @@
           <t>Tourisme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le village de Saint-Émilion est classé au patrimoine mondial de l'UNESCO.
 </t>
